--- a/data/TC001.xlsx
+++ b/data/TC001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>UserName</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Username</t>
   </si>
   <si>
     <t>Password</t>
@@ -30,16 +30,34 @@
     <t>crmsfa</t>
   </si>
   <si>
-    <t>DemoCSR</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Demo Sales Manager</t>
-  </si>
-  <si>
-    <t>Demo B2B CSR</t>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Babu</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Ownership</t>
+  </si>
+  <si>
+    <t>Computer Software</t>
+  </si>
+  <si>
+    <t>Corporation</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>TestLeaf</t>
   </si>
 </sst>
 </file>
@@ -69,7 +87,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -77,29 +95,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,19 +396,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,33 +421,47 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
